--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamarisouthwell/Documents/School/Csc4350/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhume\Documents\GitHub\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t xml:space="preserve">Para #* </t>
   </si>
@@ -32,9 +32,6 @@
     <t xml:space="preserve">Entry #                   </t>
   </si>
   <si>
-    <t>HCC Requirements Traceability Matrix</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -128,17 +125,29 @@
     <t>SW</t>
   </si>
   <si>
-    <t>NTW</t>
-  </si>
-  <si>
-    <t>NTH</t>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Use Case Name</t>
+  </si>
+  <si>
+    <t>System Specification Text</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Check Out</t>
+  </si>
+  <si>
+    <t>duplicate(14)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,13 +195,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,6 +209,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,433 +480,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1.2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.3</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1.4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>2.1</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>2.4</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>3.1</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3.2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3.3</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>3.4</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>4.2</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>4.3</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>5.2</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>6.1</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>6.2</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>6.3</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -137,10 +137,10 @@
     <t>Home page</t>
   </si>
   <si>
-    <t>Check Out</t>
-  </si>
-  <si>
     <t>duplicate(14)</t>
+  </si>
+  <si>
+    <t>Checkout</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
